--- a/agv_ride.xlsx
+++ b/agv_ride.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F191"/>
+  <dimension ref="A1:F178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,13 +465,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1390</v>
+        <v>768</v>
       </c>
       <c r="C2" t="n">
-        <v>1329</v>
+        <v>694</v>
       </c>
       <c r="D2" t="n">
-        <v>2686</v>
+        <v>2977</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -485,13 +485,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1344</v>
+        <v>749</v>
       </c>
       <c r="C3" t="n">
-        <v>1244</v>
+        <v>663</v>
       </c>
       <c r="D3" t="n">
-        <v>2976</v>
+        <v>3018</v>
       </c>
       <c r="E3" t="n">
         <v>-1.776356839400251e-16</v>
@@ -505,13 +505,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1341</v>
+        <v>756</v>
       </c>
       <c r="C4" t="n">
-        <v>1246</v>
+        <v>659</v>
       </c>
       <c r="D4" t="n">
-        <v>2953</v>
+        <v>3095</v>
       </c>
       <c r="E4" t="n">
         <v>-1.776356839400251e-16</v>
@@ -525,16 +525,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1348</v>
+        <v>768</v>
       </c>
       <c r="C5" t="n">
-        <v>1242</v>
+        <v>654</v>
       </c>
       <c r="D5" t="n">
-        <v>2982</v>
+        <v>3106</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.776356839400251e-16</v>
+        <v>0.6870031751551736</v>
       </c>
       <c r="F5" t="n">
         <v>14.99999999999999</v>
@@ -545,19 +545,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1369</v>
+        <v>788</v>
       </c>
       <c r="C6" t="n">
-        <v>1244</v>
+        <v>655</v>
       </c>
       <c r="D6" t="n">
-        <v>3012</v>
+        <v>3104</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.776356839400251e-16</v>
+        <v>3.386477967106812</v>
       </c>
       <c r="F6" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -565,19 +565,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1391</v>
+        <v>810</v>
       </c>
       <c r="C7" t="n">
-        <v>1246</v>
+        <v>655</v>
       </c>
       <c r="D7" t="n">
-        <v>3001</v>
+        <v>3091</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2560182897957999</v>
+        <v>6.170610399853182</v>
       </c>
       <c r="F7" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -585,16 +585,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1419</v>
+        <v>835</v>
       </c>
       <c r="C8" t="n">
-        <v>1250</v>
+        <v>656</v>
       </c>
       <c r="D8" t="n">
-        <v>3041</v>
+        <v>3032</v>
       </c>
       <c r="E8" t="n">
-        <v>1.954221281889468</v>
+        <v>9.452736241612303</v>
       </c>
       <c r="F8" t="n">
         <v>15</v>
@@ -605,16 +605,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1446</v>
+        <v>855</v>
       </c>
       <c r="C9" t="n">
-        <v>1260</v>
+        <v>656</v>
       </c>
       <c r="D9" t="n">
-        <v>3092</v>
+        <v>2986</v>
       </c>
       <c r="E9" t="n">
-        <v>3.839782608695647</v>
+        <v>13.00660119446576</v>
       </c>
       <c r="F9" t="n">
         <v>14.99999999999999</v>
@@ -625,16 +625,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1481</v>
+        <v>859</v>
       </c>
       <c r="C10" t="n">
-        <v>1270</v>
+        <v>655</v>
       </c>
       <c r="D10" t="n">
-        <v>3093</v>
+        <v>2928</v>
       </c>
       <c r="E10" t="n">
-        <v>5.07107269343899</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F10" t="n">
         <v>14.99999999999999</v>
@@ -645,19 +645,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1510</v>
+        <v>865</v>
       </c>
       <c r="C11" t="n">
-        <v>1277</v>
+        <v>648</v>
       </c>
       <c r="D11" t="n">
-        <v>3125</v>
+        <v>2807</v>
       </c>
       <c r="E11" t="n">
-        <v>6.897547147861997</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -665,19 +665,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1519</v>
+        <v>867</v>
       </c>
       <c r="C12" t="n">
-        <v>1276</v>
+        <v>648</v>
       </c>
       <c r="D12" t="n">
-        <v>3121</v>
+        <v>2745</v>
       </c>
       <c r="E12" t="n">
-        <v>8.529753854408636</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>15.00000000000001</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -685,19 +685,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1528</v>
+        <v>870</v>
       </c>
       <c r="C13" t="n">
-        <v>1279</v>
+        <v>645</v>
       </c>
       <c r="D13" t="n">
-        <v>3118</v>
+        <v>2557</v>
       </c>
       <c r="E13" t="n">
-        <v>9.297556286330146</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -705,19 +705,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1536</v>
+        <v>866</v>
       </c>
       <c r="C14" t="n">
-        <v>1283</v>
+        <v>641</v>
       </c>
       <c r="D14" t="n">
-        <v>3106</v>
+        <v>2425</v>
       </c>
       <c r="E14" t="n">
-        <v>9.714752005144685</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>15</v>
+        <v>14.34914127585943</v>
       </c>
     </row>
     <row r="15">
@@ -725,19 +725,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1543</v>
+        <v>864</v>
       </c>
       <c r="C15" t="n">
-        <v>1282</v>
+        <v>633</v>
       </c>
       <c r="D15" t="n">
-        <v>3094</v>
+        <v>2322</v>
       </c>
       <c r="E15" t="n">
-        <v>9.970211353278467</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>15</v>
+        <v>14.17611614586285</v>
       </c>
     </row>
     <row r="16">
@@ -745,19 +745,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1542</v>
+        <v>860</v>
       </c>
       <c r="C16" t="n">
-        <v>1285</v>
+        <v>628</v>
       </c>
       <c r="D16" t="n">
-        <v>3066</v>
+        <v>2231</v>
       </c>
       <c r="E16" t="n">
-        <v>10.58245043599926</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>15</v>
+        <v>12.84804199996868</v>
       </c>
     </row>
     <row r="17">
@@ -765,19 +765,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1548</v>
+        <v>856</v>
       </c>
       <c r="C17" t="n">
-        <v>1279</v>
+        <v>621</v>
       </c>
       <c r="D17" t="n">
-        <v>3049</v>
+        <v>2193</v>
       </c>
       <c r="E17" t="n">
-        <v>10.24829483353739</v>
+        <v>15</v>
       </c>
       <c r="F17" t="n">
-        <v>15</v>
+        <v>12.47002001328611</v>
       </c>
     </row>
     <row r="18">
@@ -785,19 +785,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1551</v>
+        <v>853</v>
       </c>
       <c r="C18" t="n">
-        <v>1270</v>
+        <v>619</v>
       </c>
       <c r="D18" t="n">
-        <v>3038</v>
+        <v>2168</v>
       </c>
       <c r="E18" t="n">
-        <v>11.21934798305202</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>15</v>
+        <v>11.68928782504828</v>
       </c>
     </row>
     <row r="19">
@@ -805,19 +805,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1550</v>
+        <v>847</v>
       </c>
       <c r="C19" t="n">
-        <v>1272</v>
+        <v>611</v>
       </c>
       <c r="D19" t="n">
-        <v>3004</v>
+        <v>2111</v>
       </c>
       <c r="E19" t="n">
-        <v>12.26157136325723</v>
+        <v>15</v>
       </c>
       <c r="F19" t="n">
-        <v>15</v>
+        <v>11.75932490681675</v>
       </c>
     </row>
     <row r="20">
@@ -825,19 +825,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1553</v>
+        <v>842</v>
       </c>
       <c r="C20" t="n">
-        <v>1268</v>
+        <v>606</v>
       </c>
       <c r="D20" t="n">
-        <v>2983</v>
+        <v>2070</v>
       </c>
       <c r="E20" t="n">
-        <v>12.00336224741548</v>
+        <v>15</v>
       </c>
       <c r="F20" t="n">
-        <v>15</v>
+        <v>11.07766071664163</v>
       </c>
     </row>
     <row r="21">
@@ -845,19 +845,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1554</v>
+        <v>833</v>
       </c>
       <c r="C21" t="n">
-        <v>1267</v>
+        <v>598</v>
       </c>
       <c r="D21" t="n">
-        <v>2963</v>
+        <v>2033</v>
       </c>
       <c r="E21" t="n">
-        <v>12.60338956704957</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>15</v>
+        <v>10.84869966077829</v>
       </c>
     </row>
     <row r="22">
@@ -865,19 +865,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1551</v>
+        <v>829</v>
       </c>
       <c r="C22" t="n">
-        <v>1262</v>
+        <v>589</v>
       </c>
       <c r="D22" t="n">
-        <v>2935</v>
+        <v>1997</v>
       </c>
       <c r="E22" t="n">
-        <v>12.7772626260173</v>
+        <v>15</v>
       </c>
       <c r="F22" t="n">
-        <v>15</v>
+        <v>10.63694259319959</v>
       </c>
     </row>
     <row r="23">
@@ -885,19 +885,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1553</v>
+        <v>822</v>
       </c>
       <c r="C23" t="n">
-        <v>1258</v>
+        <v>579</v>
       </c>
       <c r="D23" t="n">
-        <v>2911</v>
+        <v>2001</v>
       </c>
       <c r="E23" t="n">
-        <v>13.01233477170694</v>
+        <v>15</v>
       </c>
       <c r="F23" t="n">
-        <v>14.99999999999999</v>
+        <v>9.391380298049869</v>
       </c>
     </row>
     <row r="24">
@@ -905,19 +905,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1556</v>
+        <v>811</v>
       </c>
       <c r="C24" t="n">
-        <v>1255</v>
+        <v>574</v>
       </c>
       <c r="D24" t="n">
-        <v>2895</v>
+        <v>1974</v>
       </c>
       <c r="E24" t="n">
-        <v>13.56706694677014</v>
+        <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>15</v>
+        <v>8.379882269731423</v>
       </c>
     </row>
     <row r="25">
@@ -925,19 +925,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1553</v>
+        <v>807</v>
       </c>
       <c r="C25" t="n">
-        <v>1245</v>
+        <v>569</v>
       </c>
       <c r="D25" t="n">
-        <v>2859</v>
+        <v>1927</v>
       </c>
       <c r="E25" t="n">
-        <v>14.11618725256593</v>
+        <v>15</v>
       </c>
       <c r="F25" t="n">
-        <v>14.99999999999999</v>
+        <v>9.12731231394328</v>
       </c>
     </row>
     <row r="26">
@@ -945,19 +945,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1550</v>
+        <v>796</v>
       </c>
       <c r="C26" t="n">
-        <v>1244</v>
+        <v>560</v>
       </c>
       <c r="D26" t="n">
-        <v>2818</v>
+        <v>1926</v>
       </c>
       <c r="E26" t="n">
-        <v>14.90802352999873</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>15</v>
+        <v>8.695094852183182</v>
       </c>
     </row>
     <row r="27">
@@ -965,19 +965,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1551</v>
+        <v>788</v>
       </c>
       <c r="C27" t="n">
-        <v>1239</v>
+        <v>553</v>
       </c>
       <c r="D27" t="n">
-        <v>2765</v>
+        <v>1914</v>
       </c>
       <c r="E27" t="n">
-        <v>14.74398171020419</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>14.99999999999999</v>
+        <v>8.553203702374981</v>
       </c>
     </row>
     <row r="28">
@@ -985,19 +985,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1543</v>
+        <v>783</v>
       </c>
       <c r="C28" t="n">
-        <v>1229</v>
+        <v>548</v>
       </c>
       <c r="D28" t="n">
-        <v>2731</v>
+        <v>1893</v>
       </c>
       <c r="E28" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
       <c r="F28" t="n">
-        <v>14.99999999999999</v>
+        <v>8.341444314992271</v>
       </c>
     </row>
     <row r="29">
@@ -1005,19 +1005,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1538</v>
+        <v>771</v>
       </c>
       <c r="C29" t="n">
-        <v>1225</v>
+        <v>537</v>
       </c>
       <c r="D29" t="n">
-        <v>2716</v>
+        <v>1875</v>
       </c>
       <c r="E29" t="n">
-        <v>14.99999999999999</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>14.99999999999999</v>
+        <v>8.058756843758891</v>
       </c>
     </row>
     <row r="30">
@@ -1025,19 +1025,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1536</v>
+        <v>762</v>
       </c>
       <c r="C30" t="n">
-        <v>1217</v>
+        <v>530</v>
       </c>
       <c r="D30" t="n">
-        <v>2616</v>
+        <v>1878</v>
       </c>
       <c r="E30" t="n">
-        <v>14.99999999999999</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>14.99999999999999</v>
+        <v>7.597159424639472</v>
       </c>
     </row>
     <row r="31">
@@ -1045,19 +1045,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1534</v>
+        <v>758</v>
       </c>
       <c r="C31" t="n">
-        <v>1209</v>
+        <v>527</v>
       </c>
       <c r="D31" t="n">
-        <v>2593</v>
+        <v>1847</v>
       </c>
       <c r="E31" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
       <c r="F31" t="n">
-        <v>14.99999999999999</v>
+        <v>7.546913049910205</v>
       </c>
     </row>
     <row r="32">
@@ -1065,19 +1065,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1533</v>
+        <v>748</v>
       </c>
       <c r="C32" t="n">
-        <v>1206</v>
+        <v>518</v>
       </c>
       <c r="D32" t="n">
-        <v>2528</v>
+        <v>1875</v>
       </c>
       <c r="E32" t="n">
-        <v>14.99999999999999</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>14.99999999999999</v>
+        <v>7.551894171599556</v>
       </c>
     </row>
     <row r="33">
@@ -1085,19 +1085,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1527</v>
+        <v>740</v>
       </c>
       <c r="C33" t="n">
-        <v>1197</v>
+        <v>510</v>
       </c>
       <c r="D33" t="n">
-        <v>2483</v>
+        <v>1836</v>
       </c>
       <c r="E33" t="n">
         <v>14.99999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>14.99999999999999</v>
+        <v>7.184417736105987</v>
       </c>
     </row>
     <row r="34">
@@ -1105,19 +1105,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1520</v>
+        <v>734</v>
       </c>
       <c r="C34" t="n">
-        <v>1191</v>
+        <v>505</v>
       </c>
       <c r="D34" t="n">
-        <v>2437</v>
+        <v>1835</v>
       </c>
       <c r="E34" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
       <c r="F34" t="n">
-        <v>14.99999999999999</v>
+        <v>6.679170334258711</v>
       </c>
     </row>
     <row r="35">
@@ -1125,19 +1125,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1519</v>
+        <v>727</v>
       </c>
       <c r="C35" t="n">
-        <v>1179</v>
+        <v>496</v>
       </c>
       <c r="D35" t="n">
-        <v>2430</v>
+        <v>1827</v>
       </c>
       <c r="E35" t="n">
-        <v>14.99999999999999</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>14.99999999999999</v>
+        <v>6.550259660815865</v>
       </c>
     </row>
     <row r="36">
@@ -1145,19 +1145,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1510</v>
+        <v>720</v>
       </c>
       <c r="C36" t="n">
-        <v>1171</v>
+        <v>493</v>
       </c>
       <c r="D36" t="n">
-        <v>2364</v>
+        <v>1810</v>
       </c>
       <c r="E36" t="n">
-        <v>14.99999999999999</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>14.99999999999999</v>
+        <v>5.574082308058874</v>
       </c>
     </row>
     <row r="37">
@@ -1165,19 +1165,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1504</v>
+        <v>711</v>
       </c>
       <c r="C37" t="n">
-        <v>1171</v>
+        <v>484</v>
       </c>
       <c r="D37" t="n">
-        <v>2342</v>
+        <v>1799</v>
       </c>
       <c r="E37" t="n">
-        <v>14.99999999999999</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>14.99999999999999</v>
+        <v>6.151842569925322</v>
       </c>
     </row>
     <row r="38">
@@ -1185,19 +1185,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1495</v>
+        <v>702</v>
       </c>
       <c r="C38" t="n">
-        <v>1158</v>
+        <v>476</v>
       </c>
       <c r="D38" t="n">
-        <v>2275</v>
+        <v>1801</v>
       </c>
       <c r="E38" t="n">
-        <v>14.99999999999999</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>14.99999999999999</v>
+        <v>5.546961718484134</v>
       </c>
     </row>
     <row r="39">
@@ -1205,19 +1205,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1492</v>
+        <v>696</v>
       </c>
       <c r="C39" t="n">
-        <v>1152</v>
+        <v>469</v>
       </c>
       <c r="D39" t="n">
-        <v>2258</v>
+        <v>1800</v>
       </c>
       <c r="E39" t="n">
-        <v>14.99999999999999</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>14.99999999999999</v>
+        <v>5.192306872274894</v>
       </c>
     </row>
     <row r="40">
@@ -1225,19 +1225,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1483</v>
+        <v>686</v>
       </c>
       <c r="C40" t="n">
-        <v>1142</v>
+        <v>464</v>
       </c>
       <c r="D40" t="n">
-        <v>2207</v>
+        <v>1776</v>
       </c>
       <c r="E40" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
       <c r="F40" t="n">
-        <v>14.99999999999999</v>
+        <v>4.485087237171352</v>
       </c>
     </row>
     <row r="41">
@@ -1245,19 +1245,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1476</v>
+        <v>674</v>
       </c>
       <c r="C41" t="n">
-        <v>1137</v>
+        <v>454</v>
       </c>
       <c r="D41" t="n">
-        <v>2181</v>
+        <v>1923</v>
       </c>
       <c r="E41" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
       <c r="F41" t="n">
-        <v>14.99999999999999</v>
+        <v>5.154009730725872</v>
       </c>
     </row>
     <row r="42">
@@ -1265,19 +1265,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1468</v>
+        <v>658</v>
       </c>
       <c r="C42" t="n">
-        <v>1128</v>
+        <v>449</v>
       </c>
       <c r="D42" t="n">
-        <v>2118</v>
+        <v>2013</v>
       </c>
       <c r="E42" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
       <c r="F42" t="n">
-        <v>14.99999999999999</v>
+        <v>4.837318375393622</v>
       </c>
     </row>
     <row r="43">
@@ -1285,19 +1285,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1468</v>
+        <v>643</v>
       </c>
       <c r="C43" t="n">
-        <v>1118</v>
+        <v>440</v>
       </c>
       <c r="D43" t="n">
-        <v>2089</v>
+        <v>2286</v>
       </c>
       <c r="E43" t="n">
-        <v>14.99999999999999</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>14.99999999999999</v>
+        <v>6.824422759034769</v>
       </c>
     </row>
     <row r="44">
@@ -1305,19 +1305,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1454</v>
+        <v>631</v>
       </c>
       <c r="C44" t="n">
-        <v>1112</v>
+        <v>435</v>
       </c>
       <c r="D44" t="n">
-        <v>2051</v>
+        <v>2317</v>
       </c>
       <c r="E44" t="n">
         <v>15</v>
       </c>
       <c r="F44" t="n">
-        <v>13.96445098051178</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="45">
@@ -1325,19 +1325,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1451</v>
+        <v>623</v>
       </c>
       <c r="C45" t="n">
-        <v>1099</v>
+        <v>429</v>
       </c>
       <c r="D45" t="n">
-        <v>2037</v>
+        <v>2375</v>
       </c>
       <c r="E45" t="n">
         <v>15</v>
       </c>
       <c r="F45" t="n">
-        <v>14.59333880083803</v>
+        <v>8.713195615116449</v>
       </c>
     </row>
     <row r="46">
@@ -1345,19 +1345,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1441</v>
+        <v>615</v>
       </c>
       <c r="C46" t="n">
-        <v>1088</v>
+        <v>422</v>
       </c>
       <c r="D46" t="n">
-        <v>2013</v>
+        <v>2372</v>
       </c>
       <c r="E46" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
       <c r="F46" t="n">
-        <v>13.30890896849511</v>
+        <v>8.74137586901478</v>
       </c>
     </row>
     <row r="47">
@@ -1365,19 +1365,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1435</v>
+        <v>610</v>
       </c>
       <c r="C47" t="n">
-        <v>1082</v>
+        <v>414</v>
       </c>
       <c r="D47" t="n">
-        <v>1954</v>
+        <v>2362</v>
       </c>
       <c r="E47" t="n">
-        <v>15</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>12.93414661540011</v>
+        <v>8.467367234614699</v>
       </c>
     </row>
     <row r="48">
@@ -1385,19 +1385,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1429</v>
+        <v>598</v>
       </c>
       <c r="C48" t="n">
-        <v>1073</v>
+        <v>410</v>
       </c>
       <c r="D48" t="n">
-        <v>1931</v>
+        <v>2355</v>
       </c>
       <c r="E48" t="n">
         <v>15</v>
       </c>
       <c r="F48" t="n">
-        <v>12.78151407980873</v>
+        <v>7.153146369213409</v>
       </c>
     </row>
     <row r="49">
@@ -1405,19 +1405,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1421</v>
+        <v>593</v>
       </c>
       <c r="C49" t="n">
-        <v>1065</v>
+        <v>408</v>
       </c>
       <c r="D49" t="n">
-        <v>1887</v>
+        <v>2358</v>
       </c>
       <c r="E49" t="n">
         <v>15</v>
       </c>
       <c r="F49" t="n">
-        <v>12.27364145695105</v>
+        <v>8.756877538534773</v>
       </c>
     </row>
     <row r="50">
@@ -1425,19 +1425,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1414</v>
+        <v>587</v>
       </c>
       <c r="C50" t="n">
-        <v>1053</v>
+        <v>401</v>
       </c>
       <c r="D50" t="n">
-        <v>1880</v>
+        <v>2350</v>
       </c>
       <c r="E50" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
       <c r="F50" t="n">
-        <v>12.06995222284198</v>
+        <v>9.31770173336537</v>
       </c>
     </row>
     <row r="51">
@@ -1445,19 +1445,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1409</v>
+        <v>576</v>
       </c>
       <c r="C51" t="n">
-        <v>1044</v>
+        <v>400</v>
       </c>
       <c r="D51" t="n">
-        <v>1851</v>
+        <v>2336</v>
       </c>
       <c r="E51" t="n">
-        <v>14.99999999999999</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>11.29149925847743</v>
+        <v>8.560149545110351</v>
       </c>
     </row>
     <row r="52">
@@ -1465,19 +1465,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1395</v>
+        <v>572</v>
       </c>
       <c r="C52" t="n">
-        <v>1035</v>
+        <v>392</v>
       </c>
       <c r="D52" t="n">
-        <v>1829</v>
+        <v>2315</v>
       </c>
       <c r="E52" t="n">
-        <v>15</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>10.68434415314386</v>
+        <v>10.88990606115001</v>
       </c>
     </row>
     <row r="53">
@@ -1485,19 +1485,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1388</v>
+        <v>567</v>
       </c>
       <c r="C53" t="n">
-        <v>1022</v>
+        <v>393</v>
       </c>
       <c r="D53" t="n">
-        <v>1805</v>
+        <v>2309</v>
       </c>
       <c r="E53" t="n">
         <v>15</v>
       </c>
       <c r="F53" t="n">
-        <v>10.90383735127125</v>
+        <v>9.341635945136719</v>
       </c>
     </row>
     <row r="54">
@@ -1505,19 +1505,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1381</v>
+        <v>563</v>
       </c>
       <c r="C54" t="n">
-        <v>1015</v>
+        <v>386</v>
       </c>
       <c r="D54" t="n">
-        <v>1784</v>
+        <v>2289</v>
       </c>
       <c r="E54" t="n">
         <v>15</v>
       </c>
       <c r="F54" t="n">
-        <v>9.985473575486928</v>
+        <v>10.88257067686461</v>
       </c>
     </row>
     <row r="55">
@@ -1525,19 +1525,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1367</v>
+        <v>557</v>
       </c>
       <c r="C55" t="n">
-        <v>999</v>
+        <v>382</v>
       </c>
       <c r="D55" t="n">
-        <v>1773</v>
+        <v>2272</v>
       </c>
       <c r="E55" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
       <c r="F55" t="n">
-        <v>9.78681247433661</v>
+        <v>9.630283614387551</v>
       </c>
     </row>
     <row r="56">
@@ -1545,19 +1545,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1356</v>
+        <v>553</v>
       </c>
       <c r="C56" t="n">
-        <v>990</v>
+        <v>374</v>
       </c>
       <c r="D56" t="n">
-        <v>1759</v>
+        <v>2249</v>
       </c>
       <c r="E56" t="n">
         <v>15</v>
       </c>
       <c r="F56" t="n">
-        <v>9.132484946844464</v>
+        <v>9.828200711578372</v>
       </c>
     </row>
     <row r="57">
@@ -1565,19 +1565,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1345</v>
+        <v>547</v>
       </c>
       <c r="C57" t="n">
-        <v>979</v>
+        <v>370</v>
       </c>
       <c r="D57" t="n">
-        <v>1753</v>
+        <v>2234</v>
       </c>
       <c r="E57" t="n">
-        <v>15</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>9.05759952695618</v>
+        <v>8.172602790628551</v>
       </c>
     </row>
     <row r="58">
@@ -1585,19 +1585,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1335</v>
+        <v>543</v>
       </c>
       <c r="C58" t="n">
-        <v>966</v>
+        <v>364</v>
       </c>
       <c r="D58" t="n">
-        <v>1708</v>
+        <v>2230</v>
       </c>
       <c r="E58" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
       <c r="F58" t="n">
-        <v>8.720971014567702</v>
+        <v>8.364838211063187</v>
       </c>
     </row>
     <row r="59">
@@ -1605,19 +1605,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1316</v>
+        <v>537</v>
       </c>
       <c r="C59" t="n">
-        <v>955</v>
+        <v>359</v>
       </c>
       <c r="D59" t="n">
-        <v>1701</v>
+        <v>2214</v>
       </c>
       <c r="E59" t="n">
-        <v>15</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>8.00645065857406</v>
+        <v>7.309145300545386</v>
       </c>
     </row>
     <row r="60">
@@ -1625,19 +1625,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1310</v>
+        <v>532</v>
       </c>
       <c r="C60" t="n">
-        <v>941</v>
+        <v>355</v>
       </c>
       <c r="D60" t="n">
-        <v>1695</v>
+        <v>2198</v>
       </c>
       <c r="E60" t="n">
         <v>15</v>
       </c>
       <c r="F60" t="n">
-        <v>8.465672637147794</v>
+        <v>7.134577991325228</v>
       </c>
     </row>
     <row r="61">
@@ -1645,19 +1645,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1293</v>
+        <v>528</v>
       </c>
       <c r="C61" t="n">
-        <v>927</v>
+        <v>349</v>
       </c>
       <c r="D61" t="n">
-        <v>1674</v>
+        <v>2189</v>
       </c>
       <c r="E61" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
       <c r="F61" t="n">
-        <v>7.165801045864453</v>
+        <v>7.047292329119296</v>
       </c>
     </row>
     <row r="62">
@@ -1665,19 +1665,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1275</v>
+        <v>519</v>
       </c>
       <c r="C62" t="n">
-        <v>913</v>
+        <v>341</v>
       </c>
       <c r="D62" t="n">
-        <v>1665</v>
+        <v>2186</v>
       </c>
       <c r="E62" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
       <c r="F62" t="n">
-        <v>6.996215262390542</v>
+        <v>5.936168646263571</v>
       </c>
     </row>
     <row r="63">
@@ -1685,19 +1685,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1262</v>
+        <v>513</v>
       </c>
       <c r="C63" t="n">
-        <v>901</v>
+        <v>336</v>
       </c>
       <c r="D63" t="n">
-        <v>1654</v>
+        <v>2176</v>
       </c>
       <c r="E63" t="n">
         <v>15.00000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>6.929396972150225</v>
+        <v>5.451203649723934</v>
       </c>
     </row>
     <row r="64">
@@ -1705,19 +1705,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1247</v>
+        <v>506</v>
       </c>
       <c r="C64" t="n">
-        <v>886</v>
+        <v>331</v>
       </c>
       <c r="D64" t="n">
-        <v>1641</v>
+        <v>2165</v>
       </c>
       <c r="E64" t="n">
         <v>15</v>
       </c>
       <c r="F64" t="n">
-        <v>6.606893586582057</v>
+        <v>5.242758438912448</v>
       </c>
     </row>
     <row r="65">
@@ -1725,19 +1725,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1236</v>
+        <v>498</v>
       </c>
       <c r="C65" t="n">
-        <v>873</v>
+        <v>326</v>
       </c>
       <c r="D65" t="n">
-        <v>1636</v>
+        <v>2160</v>
       </c>
       <c r="E65" t="n">
         <v>15.00000000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>6.055782952361768</v>
+        <v>5.317842686088285</v>
       </c>
     </row>
     <row r="66">
@@ -1745,19 +1745,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1215</v>
+        <v>491</v>
       </c>
       <c r="C66" t="n">
-        <v>859</v>
+        <v>324</v>
       </c>
       <c r="D66" t="n">
-        <v>1622</v>
+        <v>2152</v>
       </c>
       <c r="E66" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
       <c r="F66" t="n">
-        <v>5.35170242178781</v>
+        <v>5.688917309873244</v>
       </c>
     </row>
     <row r="67">
@@ -1765,19 +1765,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1204</v>
+        <v>486</v>
       </c>
       <c r="C67" t="n">
-        <v>847</v>
+        <v>317</v>
       </c>
       <c r="D67" t="n">
-        <v>1615</v>
+        <v>2140</v>
       </c>
       <c r="E67" t="n">
         <v>15</v>
       </c>
       <c r="F67" t="n">
-        <v>5.590484943152322</v>
+        <v>6.981497795767551</v>
       </c>
     </row>
     <row r="68">
@@ -1785,19 +1785,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1188</v>
+        <v>480</v>
       </c>
       <c r="C68" t="n">
-        <v>838</v>
+        <v>312</v>
       </c>
       <c r="D68" t="n">
-        <v>1609</v>
+        <v>2126</v>
       </c>
       <c r="E68" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
       <c r="F68" t="n">
-        <v>5.008525815672978</v>
+        <v>5.661136592905427</v>
       </c>
     </row>
     <row r="69">
@@ -1805,19 +1805,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1177</v>
+        <v>473</v>
       </c>
       <c r="C69" t="n">
-        <v>827</v>
+        <v>308</v>
       </c>
       <c r="D69" t="n">
-        <v>1609</v>
+        <v>2122</v>
       </c>
       <c r="E69" t="n">
         <v>15</v>
       </c>
       <c r="F69" t="n">
-        <v>5.449191768043764</v>
+        <v>5.440395841268691</v>
       </c>
     </row>
     <row r="70">
@@ -1825,19 +1825,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1161</v>
+        <v>467</v>
       </c>
       <c r="C70" t="n">
-        <v>814</v>
+        <v>306</v>
       </c>
       <c r="D70" t="n">
-        <v>1595</v>
+        <v>2107</v>
       </c>
       <c r="E70" t="n">
         <v>15</v>
       </c>
       <c r="F70" t="n">
-        <v>5.007012345450526</v>
+        <v>5.942400473043825</v>
       </c>
     </row>
     <row r="71">
@@ -1845,19 +1845,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1151</v>
+        <v>460</v>
       </c>
       <c r="C71" t="n">
-        <v>796</v>
+        <v>301</v>
       </c>
       <c r="D71" t="n">
-        <v>1598</v>
+        <v>2090</v>
       </c>
       <c r="E71" t="n">
-        <v>15</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>4.822138922310096</v>
+        <v>6.999332461874183</v>
       </c>
     </row>
     <row r="72">
@@ -1865,19 +1865,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1125</v>
+        <v>455</v>
       </c>
       <c r="C72" t="n">
-        <v>781</v>
+        <v>299</v>
       </c>
       <c r="D72" t="n">
-        <v>1636</v>
+        <v>2077</v>
       </c>
       <c r="E72" t="n">
-        <v>14.99999999999999</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>3.072586262957105</v>
+        <v>7.113608980845164</v>
       </c>
     </row>
     <row r="73">
@@ -1885,19 +1885,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1093</v>
+        <v>449</v>
       </c>
       <c r="C73" t="n">
-        <v>758</v>
+        <v>294</v>
       </c>
       <c r="D73" t="n">
-        <v>1745</v>
+        <v>2070</v>
       </c>
       <c r="E73" t="n">
-        <v>15</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>3.758530605589137</v>
+        <v>7.888962740561569</v>
       </c>
     </row>
     <row r="74">
@@ -1905,19 +1905,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1054</v>
+        <v>445</v>
       </c>
       <c r="C74" t="n">
-        <v>736</v>
+        <v>289</v>
       </c>
       <c r="D74" t="n">
-        <v>1911</v>
+        <v>2059</v>
       </c>
       <c r="E74" t="n">
-        <v>15</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>3.840089734432017</v>
+        <v>7.685675100808374</v>
       </c>
     </row>
     <row r="75">
@@ -1925,19 +1925,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1010</v>
+        <v>443</v>
       </c>
       <c r="C75" t="n">
-        <v>720</v>
+        <v>288</v>
       </c>
       <c r="D75" t="n">
-        <v>2103</v>
+        <v>2050</v>
       </c>
       <c r="E75" t="n">
         <v>15</v>
       </c>
       <c r="F75" t="n">
-        <v>5.018728331697215</v>
+        <v>6.791977265474485</v>
       </c>
     </row>
     <row r="76">
@@ -1945,19 +1945,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>976</v>
+        <v>440</v>
       </c>
       <c r="C76" t="n">
-        <v>704</v>
+        <v>287</v>
       </c>
       <c r="D76" t="n">
-        <v>2128</v>
+        <v>2026</v>
       </c>
       <c r="E76" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>8.048806693441458</v>
+        <v>7.019404182573015</v>
       </c>
     </row>
     <row r="77">
@@ -1965,19 +1965,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>953</v>
+        <v>433</v>
       </c>
       <c r="C77" t="n">
-        <v>694</v>
+        <v>282</v>
       </c>
       <c r="D77" t="n">
-        <v>2131</v>
+        <v>2017</v>
       </c>
       <c r="E77" t="n">
         <v>15.00000000000001</v>
       </c>
       <c r="F77" t="n">
-        <v>9.819623126173983</v>
+        <v>7.595227688221002</v>
       </c>
     </row>
     <row r="78">
@@ -1985,19 +1985,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>937</v>
+        <v>430</v>
       </c>
       <c r="C78" t="n">
-        <v>685</v>
+        <v>277</v>
       </c>
       <c r="D78" t="n">
-        <v>2116</v>
+        <v>2001</v>
       </c>
       <c r="E78" t="n">
         <v>15</v>
       </c>
       <c r="F78" t="n">
-        <v>11.20453346971928</v>
+        <v>7.728632941600747</v>
       </c>
     </row>
     <row r="79">
@@ -2005,19 +2005,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>922</v>
+        <v>427</v>
       </c>
       <c r="C79" t="n">
-        <v>678</v>
+        <v>273</v>
       </c>
       <c r="D79" t="n">
-        <v>2117</v>
+        <v>1989</v>
       </c>
       <c r="E79" t="n">
         <v>15</v>
       </c>
       <c r="F79" t="n">
-        <v>11.8397432002959</v>
+        <v>6.44428246058694</v>
       </c>
     </row>
     <row r="80">
@@ -2025,19 +2025,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>917</v>
+        <v>420</v>
       </c>
       <c r="C80" t="n">
-        <v>670</v>
+        <v>273</v>
       </c>
       <c r="D80" t="n">
-        <v>2096</v>
+        <v>1979</v>
       </c>
       <c r="E80" t="n">
-        <v>15</v>
+        <v>-9.813692430170217e-17</v>
       </c>
       <c r="F80" t="n">
-        <v>12.7214403821668</v>
+        <v>-9.382131661442006</v>
       </c>
     </row>
     <row r="81">
@@ -2045,19 +2045,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>907</v>
+        <v>416</v>
       </c>
       <c r="C81" t="n">
-        <v>661</v>
+        <v>270</v>
       </c>
       <c r="D81" t="n">
-        <v>2087</v>
+        <v>1965</v>
       </c>
       <c r="E81" t="n">
-        <v>15</v>
+        <v>-9.813692430170217e-17</v>
       </c>
       <c r="F81" t="n">
-        <v>11.95583974982838</v>
+        <v>-9.382131661442006</v>
       </c>
     </row>
     <row r="82">
@@ -2065,19 +2065,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>896</v>
+        <v>412</v>
       </c>
       <c r="C82" t="n">
-        <v>653</v>
+        <v>270</v>
       </c>
       <c r="D82" t="n">
-        <v>2075</v>
+        <v>1978</v>
       </c>
       <c r="E82" t="n">
-        <v>14.99999999999999</v>
+        <v>-4.513101726118522e-17</v>
       </c>
       <c r="F82" t="n">
-        <v>11.73016064326228</v>
+        <v>-9.32258064516129</v>
       </c>
     </row>
     <row r="83">
@@ -2085,19 +2085,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>889</v>
+        <v>399</v>
       </c>
       <c r="C83" t="n">
-        <v>646</v>
+        <v>275</v>
       </c>
       <c r="D83" t="n">
-        <v>2063</v>
+        <v>1998</v>
       </c>
       <c r="E83" t="n">
-        <v>15</v>
+        <v>-4.513101726118522e-17</v>
       </c>
       <c r="F83" t="n">
-        <v>11.8444338128498</v>
+        <v>-9.32258064516129</v>
       </c>
     </row>
     <row r="84">
@@ -2105,19 +2105,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>879</v>
+        <v>389</v>
       </c>
       <c r="C84" t="n">
-        <v>641</v>
+        <v>280</v>
       </c>
       <c r="D84" t="n">
-        <v>2041</v>
+        <v>1998</v>
       </c>
       <c r="E84" t="n">
-        <v>15</v>
+        <v>-5.224578939412501e-17</v>
       </c>
       <c r="F84" t="n">
-        <v>11.54317211229641</v>
+        <v>-9.423076923076923</v>
       </c>
     </row>
     <row r="85">
@@ -2125,19 +2125,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>872</v>
+        <v>374</v>
       </c>
       <c r="C85" t="n">
-        <v>629</v>
+        <v>282</v>
       </c>
       <c r="D85" t="n">
-        <v>2034</v>
+        <v>2009</v>
       </c>
       <c r="E85" t="n">
-        <v>15</v>
+        <v>-4.513101726118522e-17</v>
       </c>
       <c r="F85" t="n">
-        <v>12.09374500043553</v>
+        <v>-9.32258064516129</v>
       </c>
     </row>
     <row r="86">
@@ -2145,19 +2145,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>862</v>
+        <v>362</v>
       </c>
       <c r="C86" t="n">
-        <v>626</v>
+        <v>288</v>
       </c>
       <c r="D86" t="n">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="E86" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F86" t="n">
-        <v>10.79988596148212</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="87">
@@ -2165,19 +2165,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>855</v>
+        <v>348</v>
       </c>
       <c r="C87" t="n">
-        <v>615</v>
+        <v>296</v>
       </c>
       <c r="D87" t="n">
-        <v>2005</v>
+        <v>2034</v>
       </c>
       <c r="E87" t="n">
-        <v>14.99999999999999</v>
+        <v>35.00000000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>11.75418948413069</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88">
@@ -2185,19 +2185,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>847</v>
+        <v>340</v>
       </c>
       <c r="C88" t="n">
-        <v>610</v>
+        <v>302</v>
       </c>
       <c r="D88" t="n">
-        <v>1992</v>
+        <v>2029</v>
       </c>
       <c r="E88" t="n">
-        <v>15</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>10.633051687153</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89">
@@ -2205,19 +2205,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>840</v>
+        <v>336</v>
       </c>
       <c r="C89" t="n">
-        <v>598</v>
+        <v>300</v>
       </c>
       <c r="D89" t="n">
-        <v>1968</v>
+        <v>2016</v>
       </c>
       <c r="E89" t="n">
         <v>14.99999999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>10.87415510876429</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90">
@@ -2225,19 +2225,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>833</v>
+        <v>337</v>
       </c>
       <c r="C90" t="n">
-        <v>593</v>
+        <v>299</v>
       </c>
       <c r="D90" t="n">
-        <v>1953</v>
+        <v>1996</v>
       </c>
       <c r="E90" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>9.511540041214449</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91">
@@ -2245,19 +2245,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>823</v>
+        <v>343</v>
       </c>
       <c r="C91" t="n">
-        <v>587</v>
+        <v>300</v>
       </c>
       <c r="D91" t="n">
-        <v>1942</v>
+        <v>1977</v>
       </c>
       <c r="E91" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>9.588819400065816</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92">
@@ -2265,19 +2265,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>817</v>
+        <v>344</v>
       </c>
       <c r="C92" t="n">
-        <v>577</v>
+        <v>296</v>
       </c>
       <c r="D92" t="n">
-        <v>1923</v>
+        <v>1955</v>
       </c>
       <c r="E92" t="n">
         <v>15</v>
       </c>
       <c r="F92" t="n">
-        <v>9.945330037488082</v>
+        <v>35.00000000000001</v>
       </c>
     </row>
     <row r="93">
@@ -2285,19 +2285,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>809</v>
+        <v>346</v>
       </c>
       <c r="C93" t="n">
-        <v>575</v>
+        <v>296</v>
       </c>
       <c r="D93" t="n">
-        <v>1905</v>
+        <v>1929</v>
       </c>
       <c r="E93" t="n">
         <v>15</v>
       </c>
       <c r="F93" t="n">
-        <v>8.77992707817592</v>
+        <v>34.99999999999999</v>
       </c>
     </row>
     <row r="94">
@@ -2305,19 +2305,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>801</v>
+        <v>351</v>
       </c>
       <c r="C94" t="n">
-        <v>567</v>
+        <v>295</v>
       </c>
       <c r="D94" t="n">
-        <v>1895</v>
+        <v>1906</v>
       </c>
       <c r="E94" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
       <c r="F94" t="n">
-        <v>9.678250684191179</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95">
@@ -2325,19 +2325,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>795</v>
+        <v>355</v>
       </c>
       <c r="C95" t="n">
-        <v>560</v>
+        <v>293</v>
       </c>
       <c r="D95" t="n">
-        <v>1875</v>
+        <v>1886</v>
       </c>
       <c r="E95" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
       <c r="F95" t="n">
-        <v>9.26930621333886</v>
+        <v>34.99999999999999</v>
       </c>
     </row>
     <row r="96">
@@ -2345,19 +2345,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>787</v>
+        <v>355</v>
       </c>
       <c r="C96" t="n">
-        <v>551</v>
+        <v>295</v>
       </c>
       <c r="D96" t="n">
-        <v>1858</v>
+        <v>1873</v>
       </c>
       <c r="E96" t="n">
-        <v>15</v>
+        <v>35.00000000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>8.727188293718488</v>
+        <v>15.00000000000001</v>
       </c>
     </row>
     <row r="97">
@@ -2365,19 +2365,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>781</v>
+        <v>358</v>
       </c>
       <c r="C97" t="n">
-        <v>543</v>
+        <v>287</v>
       </c>
       <c r="D97" t="n">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="E97" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F97" t="n">
-        <v>8.051280864111725</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="98">
@@ -2385,19 +2385,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>773</v>
+        <v>359</v>
       </c>
       <c r="C98" t="n">
-        <v>535</v>
+        <v>291</v>
       </c>
       <c r="D98" t="n">
-        <v>1834</v>
+        <v>1827</v>
       </c>
       <c r="E98" t="n">
-        <v>15.00000000000001</v>
+        <v>34.99999999999999</v>
       </c>
       <c r="F98" t="n">
-        <v>7.221614685962394</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99">
@@ -2405,19 +2405,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>764</v>
+        <v>356</v>
       </c>
       <c r="C99" t="n">
-        <v>531</v>
+        <v>291</v>
       </c>
       <c r="D99" t="n">
-        <v>1821</v>
+        <v>1814</v>
       </c>
       <c r="E99" t="n">
-        <v>15.00000000000001</v>
+        <v>35</v>
       </c>
       <c r="F99" t="n">
-        <v>6.740084345751033</v>
+        <v>15.00000000000001</v>
       </c>
     </row>
     <row r="100">
@@ -2425,19 +2425,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>753</v>
+        <v>353</v>
       </c>
       <c r="C100" t="n">
-        <v>524</v>
+        <v>292</v>
       </c>
       <c r="D100" t="n">
-        <v>1804</v>
+        <v>1789</v>
       </c>
       <c r="E100" t="n">
-        <v>15.00000000000001</v>
+        <v>35.00000000000002</v>
       </c>
       <c r="F100" t="n">
-        <v>7.42043741752934</v>
+        <v>15.00000000000001</v>
       </c>
     </row>
     <row r="101">
@@ -2445,19 +2445,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>744</v>
+        <v>351</v>
       </c>
       <c r="C101" t="n">
-        <v>515</v>
+        <v>295</v>
       </c>
       <c r="D101" t="n">
-        <v>1788</v>
+        <v>1776</v>
       </c>
       <c r="E101" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
       <c r="F101" t="n">
-        <v>7.746026263740182</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102">
@@ -2465,19 +2465,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>734</v>
+        <v>352</v>
       </c>
       <c r="C102" t="n">
-        <v>507</v>
+        <v>292</v>
       </c>
       <c r="D102" t="n">
-        <v>1775</v>
+        <v>1754</v>
       </c>
       <c r="E102" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
       <c r="F102" t="n">
-        <v>7.18737643438033</v>
+        <v>34.99999999999999</v>
       </c>
     </row>
     <row r="103">
@@ -2485,19 +2485,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>729</v>
+        <v>351</v>
       </c>
       <c r="C103" t="n">
-        <v>500</v>
+        <v>291</v>
       </c>
       <c r="D103" t="n">
-        <v>1758</v>
+        <v>1732</v>
       </c>
       <c r="E103" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>7.065874644324759</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="104">
@@ -2505,19 +2505,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>721</v>
+        <v>354</v>
       </c>
       <c r="C104" t="n">
-        <v>492</v>
+        <v>291</v>
       </c>
       <c r="D104" t="n">
-        <v>1743</v>
+        <v>1712</v>
       </c>
       <c r="E104" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>6.22412293783994</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="105">
@@ -2525,19 +2525,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>711</v>
+        <v>353</v>
       </c>
       <c r="C105" t="n">
-        <v>485</v>
+        <v>293</v>
       </c>
       <c r="D105" t="n">
-        <v>1731</v>
+        <v>1697</v>
       </c>
       <c r="E105" t="n">
-        <v>15</v>
+        <v>35.00000000000002</v>
       </c>
       <c r="F105" t="n">
-        <v>5.694883469732823</v>
+        <v>15.00000000000001</v>
       </c>
     </row>
     <row r="106">
@@ -2545,19 +2545,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>701</v>
+        <v>352</v>
       </c>
       <c r="C106" t="n">
-        <v>476</v>
+        <v>292</v>
       </c>
       <c r="D106" t="n">
-        <v>1713</v>
+        <v>1681</v>
       </c>
       <c r="E106" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>5.812370737740686</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="107">
@@ -2565,19 +2565,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>694</v>
+        <v>351</v>
       </c>
       <c r="C107" t="n">
-        <v>471</v>
+        <v>292</v>
       </c>
       <c r="D107" t="n">
-        <v>1693</v>
+        <v>1660</v>
       </c>
       <c r="E107" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F107" t="n">
-        <v>5.393928883027192</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="108">
@@ -2585,19 +2585,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>686</v>
+        <v>353</v>
       </c>
       <c r="C108" t="n">
-        <v>464</v>
+        <v>293</v>
       </c>
       <c r="D108" t="n">
-        <v>1687</v>
+        <v>1642</v>
       </c>
       <c r="E108" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
       <c r="F108" t="n">
-        <v>5.448220699327459</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109">
@@ -2605,19 +2605,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>679</v>
+        <v>352</v>
       </c>
       <c r="C109" t="n">
-        <v>456</v>
+        <v>293</v>
       </c>
       <c r="D109" t="n">
-        <v>1667</v>
+        <v>1625</v>
       </c>
       <c r="E109" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F109" t="n">
-        <v>5.154009730725872</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="110">
@@ -2625,19 +2625,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>671</v>
+        <v>352</v>
       </c>
       <c r="C110" t="n">
-        <v>448</v>
+        <v>290</v>
       </c>
       <c r="D110" t="n">
-        <v>1657</v>
+        <v>1608</v>
       </c>
       <c r="E110" t="n">
         <v>15</v>
       </c>
       <c r="F110" t="n">
-        <v>4.35368004725454</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111">
@@ -2645,19 +2645,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>661</v>
+        <v>353</v>
       </c>
       <c r="C111" t="n">
-        <v>442</v>
+        <v>292</v>
       </c>
       <c r="D111" t="n">
-        <v>1644</v>
+        <v>1585</v>
       </c>
       <c r="E111" t="n">
-        <v>14.99999999999999</v>
+        <v>35.00000000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>3.738778830469153</v>
+        <v>15.00000000000001</v>
       </c>
     </row>
     <row r="112">
@@ -2665,19 +2665,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>644</v>
+        <v>350</v>
       </c>
       <c r="C112" t="n">
-        <v>436</v>
+        <v>293</v>
       </c>
       <c r="D112" t="n">
-        <v>1630</v>
+        <v>1566</v>
       </c>
       <c r="E112" t="n">
         <v>15</v>
       </c>
       <c r="F112" t="n">
-        <v>4.136175003610783</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113">
@@ -2685,19 +2685,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>624</v>
+        <v>352</v>
       </c>
       <c r="C113" t="n">
-        <v>429</v>
+        <v>292</v>
       </c>
       <c r="D113" t="n">
-        <v>1608</v>
+        <v>1550</v>
       </c>
       <c r="E113" t="n">
-        <v>15</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>6.083000330714664</v>
+        <v>35.00000000000002</v>
       </c>
     </row>
     <row r="114">
@@ -2705,19 +2705,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>602</v>
+        <v>350</v>
       </c>
       <c r="C114" t="n">
-        <v>425</v>
+        <v>292</v>
       </c>
       <c r="D114" t="n">
-        <v>1588</v>
+        <v>1530</v>
       </c>
       <c r="E114" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>8.514241392049501</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="115">
@@ -2725,19 +2725,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>590</v>
+        <v>353</v>
       </c>
       <c r="C115" t="n">
-        <v>423</v>
+        <v>294</v>
       </c>
       <c r="D115" t="n">
-        <v>1567</v>
+        <v>1511</v>
       </c>
       <c r="E115" t="n">
-        <v>15</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>12.32985003312233</v>
+        <v>35.00000000000001</v>
       </c>
     </row>
     <row r="116">
@@ -2745,19 +2745,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>580</v>
+        <v>355</v>
       </c>
       <c r="C116" t="n">
-        <v>417</v>
+        <v>290</v>
       </c>
       <c r="D116" t="n">
-        <v>1551</v>
+        <v>1495</v>
       </c>
       <c r="E116" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
       <c r="F116" t="n">
-        <v>14.66495176972251</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117">
@@ -2765,19 +2765,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>575</v>
+        <v>355</v>
       </c>
       <c r="C117" t="n">
-        <v>414</v>
+        <v>289</v>
       </c>
       <c r="D117" t="n">
-        <v>1533</v>
+        <v>1474</v>
       </c>
       <c r="E117" t="n">
-        <v>14.99999999999999</v>
+        <v>35.00000000000002</v>
       </c>
       <c r="F117" t="n">
-        <v>14.99999999999999</v>
+        <v>15.00000000000001</v>
       </c>
     </row>
     <row r="118">
@@ -2785,16 +2785,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>571</v>
+        <v>357</v>
       </c>
       <c r="C118" t="n">
-        <v>411</v>
+        <v>291</v>
       </c>
       <c r="D118" t="n">
-        <v>1514</v>
+        <v>1453</v>
       </c>
       <c r="E118" t="n">
-        <v>14.99999999999999</v>
+        <v>34.99999999999998</v>
       </c>
       <c r="F118" t="n">
         <v>14.99999999999999</v>
@@ -2805,16 +2805,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>564</v>
+        <v>352</v>
       </c>
       <c r="C119" t="n">
-        <v>407</v>
+        <v>292</v>
       </c>
       <c r="D119" t="n">
-        <v>1498</v>
+        <v>1440</v>
       </c>
       <c r="E119" t="n">
-        <v>14.99999999999999</v>
+        <v>34.99999999999998</v>
       </c>
       <c r="F119" t="n">
         <v>14.99999999999999</v>
@@ -2825,13 +2825,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>559</v>
+        <v>349</v>
       </c>
       <c r="C120" t="n">
-        <v>408</v>
+        <v>293</v>
       </c>
       <c r="D120" t="n">
-        <v>1482</v>
+        <v>1423</v>
       </c>
       <c r="E120" t="n">
         <v>14.99999999999999</v>
@@ -2845,19 +2845,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>555</v>
+        <v>350</v>
       </c>
       <c r="C121" t="n">
-        <v>404</v>
+        <v>294</v>
       </c>
       <c r="D121" t="n">
-        <v>1461</v>
+        <v>1403</v>
       </c>
       <c r="E121" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
       <c r="F121" t="n">
-        <v>14.99999999999999</v>
+        <v>34.99999999999999</v>
       </c>
     </row>
     <row r="122">
@@ -2865,19 +2865,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>552</v>
+        <v>347</v>
       </c>
       <c r="C122" t="n">
-        <v>402</v>
+        <v>290</v>
       </c>
       <c r="D122" t="n">
-        <v>1443</v>
+        <v>1382</v>
       </c>
       <c r="E122" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
       <c r="F122" t="n">
-        <v>14.99999999999999</v>
+        <v>34.99999999999999</v>
       </c>
     </row>
     <row r="123">
@@ -2885,19 +2885,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>545</v>
+        <v>348</v>
       </c>
       <c r="C123" t="n">
-        <v>397</v>
+        <v>289</v>
       </c>
       <c r="D123" t="n">
-        <v>1427</v>
+        <v>1360</v>
       </c>
       <c r="E123" t="n">
-        <v>14.99999999999999</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>14.99999999999999</v>
+        <v>35.00000000000002</v>
       </c>
     </row>
     <row r="124">
@@ -2905,19 +2905,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>542</v>
+        <v>347</v>
       </c>
       <c r="C124" t="n">
-        <v>392</v>
+        <v>289</v>
       </c>
       <c r="D124" t="n">
-        <v>1409</v>
+        <v>1342</v>
       </c>
       <c r="E124" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
       <c r="F124" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125">
@@ -2925,19 +2925,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>537</v>
+        <v>353</v>
       </c>
       <c r="C125" t="n">
-        <v>387</v>
+        <v>290</v>
       </c>
       <c r="D125" t="n">
-        <v>1386</v>
+        <v>1320</v>
       </c>
       <c r="E125" t="n">
-        <v>14.99999999999999</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F125" t="n">
-        <v>14.99999999999999</v>
+        <v>35.00000000000001</v>
       </c>
     </row>
     <row r="126">
@@ -2945,19 +2945,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>532</v>
+        <v>354</v>
       </c>
       <c r="C126" t="n">
-        <v>384</v>
+        <v>287</v>
       </c>
       <c r="D126" t="n">
-        <v>1371</v>
+        <v>1302</v>
       </c>
       <c r="E126" t="n">
-        <v>14.99999999999999</v>
+        <v>35.00000000000002</v>
       </c>
       <c r="F126" t="n">
-        <v>14.99999999999999</v>
+        <v>15.00000000000001</v>
       </c>
     </row>
     <row r="127">
@@ -2965,16 +2965,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>530</v>
+        <v>352</v>
       </c>
       <c r="C127" t="n">
-        <v>377</v>
+        <v>287</v>
       </c>
       <c r="D127" t="n">
-        <v>1356</v>
+        <v>1285</v>
       </c>
       <c r="E127" t="n">
-        <v>14.99999999999999</v>
+        <v>34.99999999999998</v>
       </c>
       <c r="F127" t="n">
         <v>14.99999999999999</v>
@@ -2985,19 +2985,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>526</v>
+        <v>353</v>
       </c>
       <c r="C128" t="n">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="D128" t="n">
-        <v>1337</v>
+        <v>1263</v>
       </c>
       <c r="E128" t="n">
-        <v>14.99999999999999</v>
+        <v>35.00000000000002</v>
       </c>
       <c r="F128" t="n">
-        <v>14.99999999999999</v>
+        <v>15.00000000000001</v>
       </c>
     </row>
     <row r="129">
@@ -3005,16 +3005,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>521</v>
+        <v>353</v>
       </c>
       <c r="C129" t="n">
-        <v>369</v>
+        <v>286</v>
       </c>
       <c r="D129" t="n">
-        <v>1322</v>
+        <v>1241</v>
       </c>
       <c r="E129" t="n">
-        <v>14.99999999999999</v>
+        <v>34.99999999999998</v>
       </c>
       <c r="F129" t="n">
         <v>14.99999999999999</v>
@@ -3025,16 +3025,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>516</v>
+        <v>352</v>
       </c>
       <c r="C130" t="n">
-        <v>363</v>
+        <v>287</v>
       </c>
       <c r="D130" t="n">
-        <v>1306</v>
+        <v>1224</v>
       </c>
       <c r="E130" t="n">
-        <v>14.99999999999999</v>
+        <v>34.99999999999998</v>
       </c>
       <c r="F130" t="n">
         <v>14.99999999999999</v>
@@ -3045,19 +3045,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>514</v>
+        <v>349</v>
       </c>
       <c r="C131" t="n">
-        <v>362</v>
+        <v>289</v>
       </c>
       <c r="D131" t="n">
-        <v>1287</v>
+        <v>1204</v>
       </c>
       <c r="E131" t="n">
-        <v>14.99999999999999</v>
+        <v>35.00000000000002</v>
       </c>
       <c r="F131" t="n">
-        <v>14.30726695586127</v>
+        <v>15.00000000000001</v>
       </c>
     </row>
     <row r="132">
@@ -3065,19 +3065,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>511</v>
+        <v>343</v>
       </c>
       <c r="C132" t="n">
-        <v>355</v>
+        <v>289</v>
       </c>
       <c r="D132" t="n">
-        <v>1270</v>
+        <v>1185</v>
       </c>
       <c r="E132" t="n">
         <v>14.99999999999999</v>
       </c>
       <c r="F132" t="n">
-        <v>14.53269905649537</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="133">
@@ -3085,19 +3085,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>506</v>
+        <v>348</v>
       </c>
       <c r="C133" t="n">
-        <v>352</v>
+        <v>289</v>
       </c>
       <c r="D133" t="n">
-        <v>1253</v>
+        <v>1167</v>
       </c>
       <c r="E133" t="n">
         <v>14.99999999999999</v>
       </c>
       <c r="F133" t="n">
-        <v>12.81943042062986</v>
+        <v>34.99999999999998</v>
       </c>
     </row>
     <row r="134">
@@ -3105,19 +3105,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>503</v>
+        <v>345</v>
       </c>
       <c r="C134" t="n">
-        <v>347</v>
+        <v>286</v>
       </c>
       <c r="D134" t="n">
-        <v>1236</v>
+        <v>1146</v>
       </c>
       <c r="E134" t="n">
         <v>15</v>
       </c>
       <c r="F134" t="n">
-        <v>13.16756653836949</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135">
@@ -3125,19 +3125,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>496</v>
+        <v>346</v>
       </c>
       <c r="C135" t="n">
-        <v>342</v>
+        <v>288</v>
       </c>
       <c r="D135" t="n">
-        <v>1220</v>
+        <v>1128</v>
       </c>
       <c r="E135" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
       <c r="F135" t="n">
-        <v>12.19524371492886</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136">
@@ -3145,19 +3145,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>494</v>
+        <v>346</v>
       </c>
       <c r="C136" t="n">
-        <v>339</v>
+        <v>287</v>
       </c>
       <c r="D136" t="n">
-        <v>1201</v>
+        <v>1107</v>
       </c>
       <c r="E136" t="n">
-        <v>14.99999999999999</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F136" t="n">
-        <v>12.37354467317815</v>
+        <v>35.00000000000001</v>
       </c>
     </row>
     <row r="137">
@@ -3165,19 +3165,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>490</v>
+        <v>346</v>
       </c>
       <c r="C137" t="n">
-        <v>335</v>
+        <v>283</v>
       </c>
       <c r="D137" t="n">
-        <v>1181</v>
+        <v>1091</v>
       </c>
       <c r="E137" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
       <c r="F137" t="n">
-        <v>11.84533661195153</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138">
@@ -3185,19 +3185,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>488</v>
+        <v>349</v>
       </c>
       <c r="C138" t="n">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="D138" t="n">
-        <v>1167</v>
+        <v>1070</v>
       </c>
       <c r="E138" t="n">
-        <v>15</v>
+        <v>35.00000000000002</v>
       </c>
       <c r="F138" t="n">
-        <v>11.51359940473751</v>
+        <v>15.00000000000001</v>
       </c>
     </row>
     <row r="139">
@@ -3205,19 +3205,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>482</v>
+        <v>349</v>
       </c>
       <c r="C139" t="n">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="D139" t="n">
-        <v>1151</v>
+        <v>1053</v>
       </c>
       <c r="E139" t="n">
-        <v>15</v>
+        <v>34.99999999999998</v>
       </c>
       <c r="F139" t="n">
-        <v>10.2214562252816</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="140">
@@ -3225,19 +3225,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>478</v>
+        <v>346</v>
       </c>
       <c r="C140" t="n">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="D140" t="n">
-        <v>1131</v>
+        <v>1033</v>
       </c>
       <c r="E140" t="n">
-        <v>15</v>
+        <v>35.00000000000002</v>
       </c>
       <c r="F140" t="n">
-        <v>9.69164066467051</v>
+        <v>15.00000000000001</v>
       </c>
     </row>
     <row r="141">
@@ -3245,19 +3245,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>477</v>
+        <v>347</v>
       </c>
       <c r="C141" t="n">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="D141" t="n">
-        <v>1113</v>
+        <v>1017</v>
       </c>
       <c r="E141" t="n">
         <v>15</v>
       </c>
       <c r="F141" t="n">
-        <v>9.329429269037083</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142">
@@ -3265,19 +3265,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>468</v>
+        <v>345</v>
       </c>
       <c r="C142" t="n">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="D142" t="n">
-        <v>1098</v>
+        <v>1002</v>
       </c>
       <c r="E142" t="n">
-        <v>15.00000000000001</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F142" t="n">
-        <v>8.842009627104064</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="143">
@@ -3285,19 +3285,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>465</v>
+        <v>343</v>
       </c>
       <c r="C143" t="n">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="D143" t="n">
-        <v>1076</v>
+        <v>983</v>
       </c>
       <c r="E143" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
       <c r="F143" t="n">
-        <v>9.591401493008174</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144">
@@ -3305,19 +3305,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>461</v>
+        <v>347</v>
       </c>
       <c r="C144" t="n">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="D144" t="n">
-        <v>1061</v>
+        <v>965</v>
       </c>
       <c r="E144" t="n">
-        <v>15</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F144" t="n">
-        <v>8.07100558868405</v>
+        <v>35.00000000000001</v>
       </c>
     </row>
     <row r="145">
@@ -3325,19 +3325,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>456</v>
+        <v>345</v>
       </c>
       <c r="C145" t="n">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D145" t="n">
-        <v>1045</v>
+        <v>947</v>
       </c>
       <c r="E145" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F145" t="n">
-        <v>9.335274097809622</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="146">
@@ -3345,19 +3345,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>451</v>
+        <v>345</v>
       </c>
       <c r="C146" t="n">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D146" t="n">
-        <v>1028</v>
+        <v>928</v>
       </c>
       <c r="E146" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
       <c r="F146" t="n">
-        <v>7.558199823762074</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147">
@@ -3365,19 +3365,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>446</v>
+        <v>347</v>
       </c>
       <c r="C147" t="n">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D147" t="n">
-        <v>1010</v>
+        <v>910</v>
       </c>
       <c r="E147" t="n">
         <v>15</v>
       </c>
       <c r="F147" t="n">
-        <v>7.457854694392359</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148">
@@ -3385,19 +3385,19 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>445</v>
+        <v>346</v>
       </c>
       <c r="C148" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D148" t="n">
-        <v>994</v>
+        <v>891</v>
       </c>
       <c r="E148" t="n">
-        <v>15.00000000000001</v>
+        <v>35.00000000000002</v>
       </c>
       <c r="F148" t="n">
-        <v>8.248527439874255</v>
+        <v>15.00000000000001</v>
       </c>
     </row>
     <row r="149">
@@ -3405,19 +3405,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>442</v>
+        <v>346</v>
       </c>
       <c r="C149" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D149" t="n">
-        <v>978</v>
+        <v>874</v>
       </c>
       <c r="E149" t="n">
         <v>15</v>
       </c>
       <c r="F149" t="n">
-        <v>5.889357194928084</v>
+        <v>15</v>
       </c>
     </row>
     <row r="150">
@@ -3425,19 +3425,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>437</v>
+        <v>346</v>
       </c>
       <c r="C150" t="n">
         <v>285</v>
       </c>
       <c r="D150" t="n">
-        <v>959</v>
+        <v>860</v>
       </c>
       <c r="E150" t="n">
-        <v>15.00000000000001</v>
+        <v>35.00000000000001</v>
       </c>
       <c r="F150" t="n">
-        <v>4.625309624112598</v>
+        <v>15.00000000000001</v>
       </c>
     </row>
     <row r="151">
@@ -3445,19 +3445,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>435</v>
+        <v>346</v>
       </c>
       <c r="C151" t="n">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D151" t="n">
-        <v>947</v>
+        <v>840</v>
       </c>
       <c r="E151" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
       <c r="F151" t="n">
-        <v>7.7175590495369</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152">
@@ -3465,19 +3465,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>420</v>
+        <v>343</v>
       </c>
       <c r="C152" t="n">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="D152" t="n">
-        <v>930</v>
+        <v>822</v>
       </c>
       <c r="E152" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F152" t="n">
-        <v>5.638412228863327</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="153">
@@ -3485,19 +3485,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>412</v>
+        <v>344</v>
       </c>
       <c r="C153" t="n">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="D153" t="n">
-        <v>916</v>
+        <v>805</v>
       </c>
       <c r="E153" t="n">
-        <v>-7.589019945943012e-17</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F153" t="n">
-        <v>-9.402484472049691</v>
+        <v>35.00000000000002</v>
       </c>
     </row>
     <row r="154">
@@ -3505,19 +3505,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>408</v>
+        <v>343</v>
       </c>
       <c r="C154" t="n">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D154" t="n">
-        <v>907</v>
+        <v>786</v>
       </c>
       <c r="E154" t="n">
-        <v>-7.589019945943012e-17</v>
+        <v>15</v>
       </c>
       <c r="F154" t="n">
-        <v>-9.402484472049691</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155">
@@ -3525,19 +3525,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>397</v>
+        <v>344</v>
       </c>
       <c r="C155" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D155" t="n">
-        <v>910</v>
+        <v>765</v>
       </c>
       <c r="E155" t="n">
-        <v>-9.813692430170217e-17</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F155" t="n">
-        <v>-9.382131661442006</v>
+        <v>35.00000000000001</v>
       </c>
     </row>
     <row r="156">
@@ -3545,19 +3545,19 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="C156" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D156" t="n">
-        <v>917</v>
+        <v>748</v>
       </c>
       <c r="E156" t="n">
-        <v>-4.513101726118522e-17</v>
+        <v>15</v>
       </c>
       <c r="F156" t="n">
-        <v>-9.32258064516129</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157">
@@ -3565,19 +3565,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="C157" t="n">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D157" t="n">
-        <v>923</v>
+        <v>729</v>
       </c>
       <c r="E157" t="n">
-        <v>-8.587739980083204e-17</v>
+        <v>34.99999999999999</v>
       </c>
       <c r="F157" t="n">
-        <v>-9.284210526315787</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158">
@@ -3585,16 +3585,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="C158" t="n">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D158" t="n">
-        <v>936</v>
+        <v>710</v>
       </c>
       <c r="E158" t="n">
-        <v>35</v>
+        <v>34.99999999999998</v>
       </c>
       <c r="F158" t="n">
         <v>14.99999999999999</v>
@@ -3605,19 +3605,19 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C159" t="n">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="D159" t="n">
-        <v>941</v>
+        <v>691</v>
       </c>
       <c r="E159" t="n">
-        <v>35.00000000000001</v>
+        <v>34.99999999999998</v>
       </c>
       <c r="F159" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="160">
@@ -3625,19 +3625,19 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C160" t="n">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="D160" t="n">
-        <v>936</v>
+        <v>677</v>
       </c>
       <c r="E160" t="n">
-        <v>15</v>
+        <v>35.00000000000002</v>
       </c>
       <c r="F160" t="n">
-        <v>34.99999999999999</v>
+        <v>15.00000000000001</v>
       </c>
     </row>
     <row r="161">
@@ -3645,19 +3645,19 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C161" t="n">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="D161" t="n">
-        <v>920</v>
+        <v>659</v>
       </c>
       <c r="E161" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
       <c r="F161" t="n">
-        <v>35.00000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162">
@@ -3665,19 +3665,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C162" t="n">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D162" t="n">
-        <v>902</v>
+        <v>641</v>
       </c>
       <c r="E162" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
       <c r="F162" t="n">
-        <v>35</v>
+        <v>34.99999999999999</v>
       </c>
     </row>
     <row r="163">
@@ -3685,19 +3685,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C163" t="n">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D163" t="n">
-        <v>887</v>
+        <v>623</v>
       </c>
       <c r="E163" t="n">
-        <v>15</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F163" t="n">
-        <v>34.99999999999999</v>
+        <v>34.99999999999998</v>
       </c>
     </row>
     <row r="164">
@@ -3705,13 +3705,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C164" t="n">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D164" t="n">
-        <v>866</v>
+        <v>603</v>
       </c>
       <c r="E164" t="n">
         <v>15</v>
@@ -3725,19 +3725,19 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C165" t="n">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D165" t="n">
-        <v>846</v>
+        <v>578</v>
       </c>
       <c r="E165" t="n">
-        <v>14.99999999999999</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F165" t="n">
-        <v>34.99999999999998</v>
+        <v>35</v>
       </c>
     </row>
     <row r="166">
@@ -3745,13 +3745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C166" t="n">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D166" t="n">
-        <v>826</v>
+        <v>559</v>
       </c>
       <c r="E166" t="n">
         <v>14.99999999999999</v>
@@ -3765,19 +3765,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C167" t="n">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D167" t="n">
-        <v>807</v>
+        <v>539</v>
       </c>
       <c r="E167" t="n">
-        <v>15</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F167" t="n">
-        <v>34.99999999999999</v>
+        <v>35.00000000000001</v>
       </c>
     </row>
     <row r="168">
@@ -3785,13 +3785,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C168" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D168" t="n">
-        <v>785</v>
+        <v>516</v>
       </c>
       <c r="E168" t="n">
         <v>35.00000000000002</v>
@@ -3805,19 +3805,19 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C169" t="n">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D169" t="n">
-        <v>766</v>
+        <v>494</v>
       </c>
       <c r="E169" t="n">
-        <v>34.99999999999998</v>
+        <v>15</v>
       </c>
       <c r="F169" t="n">
-        <v>14.99999999999999</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170">
@@ -3825,19 +3825,19 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="C170" t="n">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D170" t="n">
-        <v>747</v>
+        <v>476</v>
       </c>
       <c r="E170" t="n">
-        <v>34.99999999999998</v>
+        <v>35.00000000000002</v>
       </c>
       <c r="F170" t="n">
-        <v>14.99999999999999</v>
+        <v>15.00000000000001</v>
       </c>
     </row>
     <row r="171">
@@ -3845,19 +3845,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C171" t="n">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D171" t="n">
-        <v>725</v>
+        <v>459</v>
       </c>
       <c r="E171" t="n">
-        <v>35</v>
+        <v>34.99999999999999</v>
       </c>
       <c r="F171" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="172">
@@ -3865,19 +3865,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C172" t="n">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D172" t="n">
-        <v>709</v>
+        <v>440</v>
       </c>
       <c r="E172" t="n">
-        <v>35.00000000000002</v>
+        <v>15</v>
       </c>
       <c r="F172" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173">
@@ -3885,19 +3885,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C173" t="n">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="D173" t="n">
-        <v>688</v>
+        <v>420</v>
       </c>
       <c r="E173" t="n">
-        <v>14.99999999999999</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="F173" t="n">
-        <v>14.99999999999999</v>
+        <v>35.00000000000001</v>
       </c>
     </row>
     <row r="174">
@@ -3905,19 +3905,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C174" t="n">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D174" t="n">
-        <v>672</v>
+        <v>406</v>
       </c>
       <c r="E174" t="n">
-        <v>15.00000000000001</v>
+        <v>15</v>
       </c>
       <c r="F174" t="n">
-        <v>35.00000000000002</v>
+        <v>15</v>
       </c>
     </row>
     <row r="175">
@@ -3925,19 +3925,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C175" t="n">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D175" t="n">
-        <v>653</v>
+        <v>385</v>
       </c>
       <c r="E175" t="n">
-        <v>15.00000000000001</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="F175" t="n">
-        <v>35.00000000000002</v>
+        <v>14.99999999999999</v>
       </c>
     </row>
     <row r="176">
@@ -3945,19 +3945,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="C176" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D176" t="n">
-        <v>631</v>
+        <v>364</v>
       </c>
       <c r="E176" t="n">
-        <v>15.00000000000001</v>
+        <v>6.946412098746623</v>
       </c>
       <c r="F176" t="n">
-        <v>35.00000000000002</v>
+        <v>16.47327166416247</v>
       </c>
     </row>
     <row r="177">
@@ -3965,19 +3965,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="C177" t="n">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D177" t="n">
-        <v>609</v>
+        <v>352</v>
       </c>
       <c r="E177" t="n">
-        <v>15</v>
+        <v>1.929681015048357</v>
       </c>
       <c r="F177" t="n">
-        <v>34.99999999999999</v>
+        <v>5.479509764628729</v>
       </c>
     </row>
     <row r="178">
@@ -3985,279 +3985,19 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="C178" t="n">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D178" t="n">
-        <v>588</v>
+        <v>332</v>
       </c>
       <c r="E178" t="n">
-        <v>15.00000000000001</v>
+        <v>0.6711428005545653</v>
       </c>
       <c r="F178" t="n">
-        <v>35.00000000000001</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>354</v>
-      </c>
-      <c r="C179" t="n">
-        <v>291</v>
-      </c>
-      <c r="D179" t="n">
-        <v>566</v>
-      </c>
-      <c r="E179" t="n">
-        <v>34.99999999999998</v>
-      </c>
-      <c r="F179" t="n">
-        <v>14.99999999999999</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>355</v>
-      </c>
-      <c r="C180" t="n">
-        <v>292</v>
-      </c>
-      <c r="D180" t="n">
-        <v>546</v>
-      </c>
-      <c r="E180" t="n">
-        <v>35.00000000000002</v>
-      </c>
-      <c r="F180" t="n">
-        <v>15.00000000000001</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>358</v>
-      </c>
-      <c r="C181" t="n">
-        <v>293</v>
-      </c>
-      <c r="D181" t="n">
-        <v>526</v>
-      </c>
-      <c r="E181" t="n">
-        <v>35.00000000000002</v>
-      </c>
-      <c r="F181" t="n">
-        <v>15.00000000000001</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>356</v>
-      </c>
-      <c r="C182" t="n">
-        <v>294</v>
-      </c>
-      <c r="D182" t="n">
-        <v>510</v>
-      </c>
-      <c r="E182" t="n">
-        <v>35.00000000000002</v>
-      </c>
-      <c r="F182" t="n">
-        <v>15.00000000000001</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>353</v>
-      </c>
-      <c r="C183" t="n">
-        <v>295</v>
-      </c>
-      <c r="D183" t="n">
-        <v>490</v>
-      </c>
-      <c r="E183" t="n">
-        <v>35.00000000000001</v>
-      </c>
-      <c r="F183" t="n">
-        <v>15.00000000000001</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>350</v>
-      </c>
-      <c r="C184" t="n">
-        <v>299</v>
-      </c>
-      <c r="D184" t="n">
-        <v>472</v>
-      </c>
-      <c r="E184" t="n">
-        <v>15.00000000000001</v>
-      </c>
-      <c r="F184" t="n">
-        <v>35.00000000000001</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>351</v>
-      </c>
-      <c r="C185" t="n">
-        <v>297</v>
-      </c>
-      <c r="D185" t="n">
-        <v>457</v>
-      </c>
-      <c r="E185" t="n">
-        <v>15.00000000000001</v>
-      </c>
-      <c r="F185" t="n">
-        <v>35.00000000000001</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>348</v>
-      </c>
-      <c r="C186" t="n">
-        <v>297</v>
-      </c>
-      <c r="D186" t="n">
-        <v>434</v>
-      </c>
-      <c r="E186" t="n">
-        <v>14.99999999999999</v>
-      </c>
-      <c r="F186" t="n">
-        <v>34.99999999999998</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>351</v>
-      </c>
-      <c r="C187" t="n">
-        <v>298</v>
-      </c>
-      <c r="D187" t="n">
-        <v>410</v>
-      </c>
-      <c r="E187" t="n">
-        <v>15.00000000000001</v>
-      </c>
-      <c r="F187" t="n">
-        <v>35.00000000000001</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>353</v>
-      </c>
-      <c r="C188" t="n">
-        <v>296</v>
-      </c>
-      <c r="D188" t="n">
-        <v>395</v>
-      </c>
-      <c r="E188" t="n">
-        <v>14.99999999999999</v>
-      </c>
-      <c r="F188" t="n">
-        <v>34.99999999999998</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>352</v>
-      </c>
-      <c r="C189" t="n">
-        <v>295</v>
-      </c>
-      <c r="D189" t="n">
-        <v>373</v>
-      </c>
-      <c r="E189" t="n">
-        <v>7.742613463295767</v>
-      </c>
-      <c r="F189" t="n">
-        <v>17.93283338767523</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>355</v>
-      </c>
-      <c r="C190" t="n">
-        <v>296</v>
-      </c>
-      <c r="D190" t="n">
-        <v>353</v>
-      </c>
-      <c r="E190" t="n">
-        <v>2.336245553934301</v>
-      </c>
-      <c r="F190" t="n">
-        <v>6.530377961314386</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>354</v>
-      </c>
-      <c r="C191" t="n">
-        <v>293</v>
-      </c>
-      <c r="D191" t="n">
-        <v>332</v>
-      </c>
-      <c r="E191" t="n">
-        <v>0.9939633063720664</v>
-      </c>
-      <c r="F191" t="n">
-        <v>0.9939633063720664</v>
+        <v>1.995377503852081</v>
       </c>
     </row>
   </sheetData>
